--- a/data/옵션비율.xlsx
+++ b/data/옵션비율.xlsx
@@ -1,46 +1,394 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RAG_smart data\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25030" windowHeight="8880"/>
+  </bookViews>
   <sheets>
     <sheet name="옵션비율" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="115">
+  <si>
+    <t>옵션명</t>
+  </si>
+  <si>
+    <t>비율</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1%</t>
+  </si>
+  <si>
+    <t>2%</t>
+  </si>
+  <si>
+    <t>3%</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>6%</t>
+  </si>
+  <si>
+    <t>7%</t>
+  </si>
+  <si>
+    <t>8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 스테이크 리얼고구마 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그릴드 닭가슴살 오리지널 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 츠쿠네 꼬치 대파깻잎 70g 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 저염 슬라이스 닭가슴살 플러스 100g 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 핫양념치킨맛 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 페퍼콘 스팀 닭가슴살 플러스 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 프랑크 꼬치 청양고추맛 70g 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 훈제 닭가슴살 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 저염 슬라이스 닭가슴살 플러스 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한저염훈제닭가슴살HOT 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 그릴드 닭가슴살 탄두리 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 스테이크 스파이시커리 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 중화짜장맛 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 화이트머쉬룸 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오리지널 닭가슴살 슬라이스 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 중화짜장맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 스위트갈릭 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01_저염 슬라이스 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02_레몬 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01_오곡 닭가슴살 소시지 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03_흑미 닭가슴살 스테이크 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02_현미 닭가슴살 스테이크 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05_청양고추맛 닭가슴살 핫바 80g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 07_흑미 닭가슴살스테이크 (100gX3팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02_레몬 닭가슴살 (100gX3팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16_새우 닭가슴살소시지 (120gX2팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08_아보카도 닭가슴살 (100gX3팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 프랑크 꼬치 구운마늘맛 70g 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더쫄깃한 닭다리살 매콤바베큐 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 떡볶이맛 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 스위트갈릭 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The 그릴드 닭가슴살 스테이크 오리지널 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 토마토 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The 그릴드 닭가슴살 스테이크 옛날잡채 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The 그릴드 닭가슴살 스테이크 매콤치즈 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The 그릴드 닭가슴살 스테이크 블랙페퍼 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04_레몬 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05_카레 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02_더 촉촉한 닭가슴살 고추맛 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02_페퍼콘 스팀 닭가슴살 플러스 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01_카레 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04_한입 흑임자 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 02_중화짬뽕 슬라이스 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01_저염 훈제 닭가슴살 200g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06_카레 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01_저염훈제닭가슴살플러스(100gX3팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 스테이크 리얼두부 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 스테이크 리얼감자 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 저염훈제 닭가슴살 HOT 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 피클머스타드 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 스테이크 리얼단호박 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중화짬뽕 슬라이스 닭가슴살 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03_슬라이스 훈제 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01_페퍼콘 스팀 닭가슴살 플러스 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05_더 촉촉한 닭가슴살 저염 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03_페퍼콘 스팀 닭가슴살 플러스 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04_중화짬뽕 슬라이스 닭가슴살 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 05_두부 닭가슴살스테이크 (100gX3팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15_흑마늘 닭가슴살소시지 (100gX3팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 숯불갈비맛 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 프랑크 꼬치 청양고추맛 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 핫양념치킨맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 청양마요 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 저염 훈제 닭가슴살 플러스 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 중화짬뽕맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 화이트머쉬룸 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 훈제 닭가슴살 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04_고구마 닭가슴살스테이크 (100gX3팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 03_카레 닭가슴살 (100gX3팩)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 페퍼콘 스팀 닭가슴살 플러스 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 츠쿠네 꼬치 매콤당면 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 스테이크 현미&amp;귀리 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 떡볶이맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 프랑크 꼬치 구운마늘맛 10팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04_더 촉촉한 닭가슴살 고추맛 100g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더쫄깃한 닭다리살 매콤바베큐 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 스테이크 해물짜장맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 매콤데리야끼맛 100g 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 스테이크 해물떡볶이맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The 그릴드 닭가슴살 스테이크 청양고추 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 스파이시커리 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 스테이크 레드크림커리 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 오리지널 닭가슴살 슬라이스 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더쫄깃한 닭다리살 숯불데리야끼 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더쫄깃한 훈제 닭다리살 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 훈제 닭가슴살 슬라이스 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 숯불갈비맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 더촉촉한 닭가슴살 중화마라맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 소스 닭가슴살 스테이크 해물짬뽕맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 저염 슬라이스 닭가슴살 플러스 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 중화짜장 슬라이스 닭가슴살 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 촉촉한 닭가슴살 볼케이노 7팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 닭가슴살 꼬치 대파깻잎 10팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 촉촉한 저염훈제 닭가슴살 HOT 7팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 촉촉한 닭가슴살 매콤데리야끼맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 촉촉한 닭가슴살 매콤데리야끼맛 7팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 촉촉한 훈제 닭가슴살 7팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 촉촉한 닭가슴살 화이트머쉬룸 7팩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쫄깃한 훈제 닭다리살 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쫄깃한 닭다리살 매콤바베큐 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 쫄깃한 닭다리살 숯불데리야끼 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 촉촉한 닭가슴살 핫양념치킨맛 7팩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 촉촉한 닭가슴살 숯불갈비맛 7팩</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -68,10 +416,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,1376 +752,1386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="57.53515625" customWidth="1"/>
+    <col min="2" max="2" width="38.84375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>옵션명</v>
-      </c>
-      <c r="B1" t="str">
-        <v>비율</v>
-      </c>
-      <c r="C1" t="str">
-        <v>수량</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 스테이크 리얼고구마 10팩</v>
-      </c>
-      <c r="B2" t="str">
-        <v>0%</v>
+    <row r="1" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>옵션을 선택해 주세요: 그릴드 닭가슴살 오리지널 100g 7팩</v>
-      </c>
-      <c r="B3" t="str">
-        <v>0%</v>
+    <row r="3" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 츠쿠네 꼬치 대파깻잎 70g 10팩</v>
-      </c>
-      <c r="B4" t="str">
-        <v>0%</v>
+    <row r="4" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>옵션을 선택해 주세요: 저염 슬라이스 닭가슴살 플러스 100g 10팩</v>
-      </c>
-      <c r="B5" t="str">
-        <v>0%</v>
+    <row r="5" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 핫양념치킨맛 100g 7팩</v>
-      </c>
-      <c r="B6" t="str">
-        <v>0%</v>
+    <row r="6" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>옵션을 선택해 주세요: 페퍼콘 스팀 닭가슴살 플러스 100g 7팩</v>
-      </c>
-      <c r="B7" t="str">
-        <v>0%</v>
+    <row r="7" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 프랑크 꼬치 청양고추맛 70g 10팩</v>
-      </c>
-      <c r="B8" t="str">
-        <v>0%</v>
+    <row r="8" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 훈제 닭가슴살 100g 7팩</v>
-      </c>
-      <c r="B9" t="str">
-        <v>0%</v>
+    <row r="9" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>옵션을 선택해 주세요: 저염 슬라이스 닭가슴살 플러스 100g 7팩</v>
-      </c>
-      <c r="B10" t="str">
-        <v>0%</v>
+    <row r="10" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한저염훈제닭가슴살HOT 100g 7팩</v>
-      </c>
-      <c r="B11" t="str">
-        <v>0%</v>
+    <row r="11" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>옵션을 선택해 주세요: 그릴드 닭가슴살 탄두리 100g 7팩</v>
-      </c>
-      <c r="B12" t="str">
-        <v>0%</v>
+    <row r="12" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 스테이크 스파이시커리 7팩</v>
-      </c>
-      <c r="B13" t="str">
-        <v>0%</v>
+    <row r="13" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>옵션을 선택해 주세요: 소스 닭가슴살 중화짜장맛 100g 7팩</v>
-      </c>
-      <c r="B14" t="str">
-        <v>0%</v>
+    <row r="14" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 화이트머쉬룸 100g 7팩</v>
-      </c>
-      <c r="B15" t="str">
-        <v>0%</v>
+    <row r="15" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>옵션을 선택해 주세요: 오리지널 닭가슴살 슬라이스 100g 7팩</v>
-      </c>
-      <c r="B16" t="str">
-        <v>0%</v>
+    <row r="16" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>제품선택: 소스 닭가슴살 중화짜장맛 7팩</v>
-      </c>
-      <c r="B17" t="str">
-        <v>0%</v>
+    <row r="17" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 스위트갈릭 7팩</v>
-      </c>
-      <c r="B18" t="str">
-        <v>0%</v>
+    <row r="18" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>제품선택: 01_저염 슬라이스 닭가슴살 100g</v>
-      </c>
-      <c r="B19" t="str">
-        <v>0%</v>
+    <row r="19" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>제품선택: 02_레몬 닭가슴살 100g</v>
-      </c>
-      <c r="B20" t="str">
-        <v>0%</v>
+    <row r="20" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>제품선택: 01_오곡 닭가슴살 소시지 100g</v>
-      </c>
-      <c r="B21" t="str">
-        <v>0%</v>
+    <row r="21" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>제품선택: 03_흑미 닭가슴살 스테이크 100g</v>
-      </c>
-      <c r="B22" t="str">
-        <v>0%</v>
+    <row r="22" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>제품선택: 02_현미 닭가슴살 스테이크 100g</v>
-      </c>
-      <c r="B23" t="str">
-        <v>0%</v>
+    <row r="23" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>제품선택: 05_청양고추맛 닭가슴살 핫바 80g</v>
-      </c>
-      <c r="B24" t="str">
-        <v>0%</v>
+    <row r="24" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>제품선택: 07_흑미 닭가슴살스테이크 (100gX3팩)</v>
-      </c>
-      <c r="B25" t="str">
-        <v>0%</v>
+    <row r="25" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>제품선택: 02_레몬 닭가슴살 (100gX3팩)</v>
-      </c>
-      <c r="B26" t="str">
-        <v>0%</v>
+    <row r="26" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>제품선택: 16_새우 닭가슴살소시지 (120gX2팩)</v>
-      </c>
-      <c r="B27" t="str">
-        <v>0%</v>
+    <row r="27" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>제품선택: 08_아보카도 닭가슴살 (100gX3팩)</v>
-      </c>
-      <c r="B28" t="str">
-        <v>0%</v>
+    <row r="28" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" t="str">
-        <v>0%</v>
+    <row r="29" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="B29" t="s">
+        <v>3</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 프랑크 꼬치 구운마늘맛 70g 10팩</v>
-      </c>
-      <c r="B30" t="str">
-        <v>0%</v>
+    <row r="30" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>옵션을 선택해 주세요: 더쫄깃한 닭다리살 매콤바베큐 100g 7팩</v>
-      </c>
-      <c r="B31" t="str">
-        <v>0%</v>
+    <row r="31" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>옵션을 선택해 주세요: 소스 닭가슴살 떡볶이맛 100g 7팩</v>
-      </c>
-      <c r="B32" t="str">
-        <v>0%</v>
+    <row r="32" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 스위트갈릭 100g 7팩</v>
-      </c>
-      <c r="B33" t="str">
-        <v>0%</v>
+    <row r="33" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>옵션을 선택해 주세요: The 그릴드 닭가슴살 스테이크 오리지널 7팩</v>
-      </c>
-      <c r="B34" t="str">
-        <v>0%</v>
+    <row r="34" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>옵션을 선택해 주세요: 소스 닭가슴살 토마토 7팩</v>
-      </c>
-      <c r="B35" t="str">
-        <v>0%</v>
+    <row r="35" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>옵션을 선택해 주세요: 소스 닭가슴살 중화짜장맛 7팩</v>
-      </c>
-      <c r="B36" t="str">
-        <v>0%</v>
+    <row r="36" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>옵션을 선택해 주세요: The 그릴드 닭가슴살 스테이크 옛날잡채 7팩</v>
-      </c>
-      <c r="B37" t="str">
-        <v>0%</v>
+    <row r="37" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
       </c>
       <c r="C37">
         <v>2</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>옵션을 선택해 주세요: The 그릴드 닭가슴살 스테이크 매콤치즈 7팩</v>
-      </c>
-      <c r="B38" t="str">
-        <v>0%</v>
+    <row r="38" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>제품선택: The 그릴드 닭가슴살 스테이크 블랙페퍼 7팩</v>
-      </c>
-      <c r="B39" t="str">
-        <v>0%</v>
+    <row r="39" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>제품선택: 04_레몬 닭가슴살 100g</v>
-      </c>
-      <c r="B40" t="str">
-        <v>0%</v>
+    <row r="40" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>제품선택: 05_카레 닭가슴살 100g</v>
-      </c>
-      <c r="B41" t="str">
-        <v>0%</v>
+    <row r="41" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>3</v>
       </c>
       <c r="C41">
         <v>2</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>제품선택: 02_더 촉촉한 닭가슴살 고추맛 100g</v>
-      </c>
-      <c r="B42" t="str">
-        <v>0%</v>
+    <row r="42" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>제품선택: 02_페퍼콘 스팀 닭가슴살 플러스 100g</v>
-      </c>
-      <c r="B43" t="str">
-        <v>0%</v>
+    <row r="43" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>제품선택: 01_카레 닭가슴살 100g</v>
-      </c>
-      <c r="B44" t="str">
-        <v>0%</v>
+    <row r="44" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>제품선택: 04_한입 흑임자 닭가슴살 100g</v>
-      </c>
-      <c r="B45" t="str">
-        <v>0%</v>
+    <row r="45" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>제품선택: 02_중화짬뽕 슬라이스 닭가슴살 100g</v>
-      </c>
-      <c r="B46" t="str">
-        <v>0%</v>
+    <row r="46" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>제품선택: 01_저염 훈제 닭가슴살 200g</v>
-      </c>
-      <c r="B47" t="str">
-        <v>0%</v>
+    <row r="47" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
       </c>
       <c r="C47">
         <v>2</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>제품선택: 06_카레 닭가슴살 100g</v>
-      </c>
-      <c r="B48" t="str">
-        <v>0%</v>
+    <row r="48" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>제품선택: 01_저염훈제닭가슴살플러스(100gX3팩)</v>
-      </c>
-      <c r="B49" t="str">
-        <v>0%</v>
+    <row r="49" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 스테이크 리얼두부 10팩</v>
-      </c>
-      <c r="B50" t="str">
-        <v>0%</v>
+    <row r="50" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
       </c>
       <c r="C50">
         <v>3</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 스테이크 리얼감자 10팩</v>
-      </c>
-      <c r="B51" t="str">
-        <v>0%</v>
+    <row r="51" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 저염훈제 닭가슴살 HOT 7팩</v>
-      </c>
-      <c r="B52" t="str">
-        <v>0%</v>
+    <row r="52" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
       </c>
       <c r="C52">
         <v>3</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>제품선택: 닭가슴살 스테이크 리얼고구마 10팩</v>
-      </c>
-      <c r="B53" t="str">
-        <v>0%</v>
+    <row r="53" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>옵션을 선택해 주세요: 소스 닭가슴살 피클머스타드 7팩</v>
-      </c>
-      <c r="B54" t="str">
-        <v>0%</v>
+    <row r="54" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
       </c>
       <c r="C54">
         <v>3</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>제품선택: 닭가슴살 스테이크 리얼두부 10팩</v>
-      </c>
-      <c r="B55" t="str">
-        <v>0%</v>
+    <row r="55" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
       </c>
       <c r="C55">
         <v>3</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>제품선택: 닭가슴살 스테이크 리얼단호박 10팩</v>
-      </c>
-      <c r="B56" t="str">
-        <v>0%</v>
+    <row r="56" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>제품선택: The 그릴드 닭가슴살 스테이크 오리지널 7팩</v>
-      </c>
-      <c r="B57" t="str">
-        <v>0%</v>
+    <row r="57" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
       </c>
       <c r="C57">
         <v>3</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>제품선택: 중화짬뽕 슬라이스 닭가슴살 7팩</v>
-      </c>
-      <c r="B58" t="str">
-        <v>0%</v>
+    <row r="58" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
       </c>
       <c r="C58">
         <v>3</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>제품선택: 03_슬라이스 훈제 닭가슴살 100g</v>
-      </c>
-      <c r="B59" t="str">
-        <v>0%</v>
+    <row r="59" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
       </c>
       <c r="C59">
         <v>3</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>제품선택: 01_페퍼콘 스팀 닭가슴살 플러스 100g</v>
-      </c>
-      <c r="B60" t="str">
-        <v>0%</v>
+    <row r="60" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
       </c>
       <c r="C60">
         <v>3</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>제품선택: 05_더 촉촉한 닭가슴살 저염 100g</v>
-      </c>
-      <c r="B61" t="str">
-        <v>0%</v>
+    <row r="61" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
       </c>
       <c r="C61">
         <v>3</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>제품선택: 03_페퍼콘 스팀 닭가슴살 플러스 100g</v>
-      </c>
-      <c r="B62" t="str">
-        <v>0%</v>
+    <row r="62" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
       </c>
       <c r="C62">
         <v>3</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>제품선택: 04_중화짬뽕 슬라이스 닭가슴살 100g</v>
-      </c>
-      <c r="B63" t="str">
-        <v>0%</v>
+    <row r="63" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>3</v>
       </c>
       <c r="C63">
         <v>3</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>제품선택: 05_두부 닭가슴살스테이크 (100gX3팩)</v>
-      </c>
-      <c r="B64" t="str">
-        <v>0%</v>
+    <row r="64" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
       </c>
       <c r="C64">
         <v>3</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>제품선택: 15_흑마늘 닭가슴살소시지 (100gX3팩)</v>
-      </c>
-      <c r="B65" t="str">
-        <v>0%</v>
+    <row r="65" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
       </c>
       <c r="C65">
         <v>3</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 숯불갈비맛 100g 7팩</v>
-      </c>
-      <c r="B66" t="str">
-        <v>0%</v>
+    <row r="66" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 프랑크 꼬치 청양고추맛 10팩</v>
-      </c>
-      <c r="B67" t="str">
-        <v>0%</v>
+    <row r="67" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
       </c>
       <c r="C67">
         <v>4</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 핫양념치킨맛 7팩</v>
-      </c>
-      <c r="B68" t="str">
-        <v>0%</v>
+    <row r="68" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>옵션을 선택해 주세요: 소스 닭가슴살 청양마요 7팩</v>
-      </c>
-      <c r="B69" t="str">
-        <v>0%</v>
+    <row r="69" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
       </c>
       <c r="C69">
         <v>4</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>옵션을 선택해 주세요: 저염 훈제 닭가슴살 플러스 7팩</v>
-      </c>
-      <c r="B70" t="str">
-        <v>0%</v>
+    <row r="70" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>옵션을 선택해 주세요: 소스 닭가슴살 중화짬뽕맛 7팩</v>
-      </c>
-      <c r="B71" t="str">
-        <v>0%</v>
+    <row r="71" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
       </c>
       <c r="C71">
         <v>4</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 화이트머쉬룸 7팩</v>
-      </c>
-      <c r="B72" t="str">
-        <v>0%</v>
+    <row r="72" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 훈제 닭가슴살 7팩</v>
-      </c>
-      <c r="B73" t="str">
-        <v>0%</v>
+    <row r="73" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>제품선택: 닭가슴살 스테이크 리얼감자 10팩</v>
-      </c>
-      <c r="B74" t="str">
-        <v>0%</v>
+    <row r="74" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>제품선택: 더촉촉한 스테이크 스파이시커리 7팩</v>
-      </c>
-      <c r="B75" t="str">
-        <v>0%</v>
+    <row r="75" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
       </c>
       <c r="C75">
         <v>4</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>제품선택: 04_고구마 닭가슴살스테이크 (100gX3팩)</v>
-      </c>
-      <c r="B76" t="str">
-        <v>0%</v>
+    <row r="76" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
       </c>
       <c r="C76">
         <v>4</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>제품선택: 03_카레 닭가슴살 (100gX3팩)</v>
-      </c>
-      <c r="B77" t="str">
-        <v>0%</v>
+    <row r="77" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
       </c>
       <c r="C77">
         <v>4</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>옵션을 선택해 주세요: 페퍼콘 스팀 닭가슴살 플러스 7팩</v>
-      </c>
-      <c r="B78" t="str">
-        <v>0%</v>
+    <row r="78" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
       </c>
       <c r="C78">
         <v>5</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 츠쿠네 꼬치 매콤당면 10팩</v>
-      </c>
-      <c r="B79" t="str">
-        <v>0%</v>
+    <row r="79" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
       </c>
       <c r="C79">
         <v>5</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 스테이크 현미&amp;귀리 10팩</v>
-      </c>
-      <c r="B80" t="str">
-        <v>0%</v>
+    <row r="80" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
       </c>
       <c r="C80">
         <v>5</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>옵션을 선택해 주세요: 소스 닭가슴살 떡볶이맛 7팩</v>
-      </c>
-      <c r="B81" t="str">
-        <v>0%</v>
+    <row r="81" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
       </c>
       <c r="C81">
         <v>5</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 프랑크 꼬치 구운마늘맛 10팩</v>
-      </c>
-      <c r="B82" t="str">
-        <v>0%</v>
+    <row r="82" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
       </c>
       <c r="C82">
         <v>5</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>제품선택: 04_더 촉촉한 닭가슴살 고추맛 100g</v>
-      </c>
-      <c r="B83" t="str">
-        <v>0%</v>
+    <row r="83" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
       </c>
       <c r="C83">
         <v>5</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>옵션을 선택해 주세요: 더쫄깃한 닭다리살 매콤바베큐 7팩</v>
-      </c>
-      <c r="B84" t="str">
-        <v>0%</v>
+    <row r="84" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
       </c>
       <c r="C84">
         <v>6</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>옵션을 선택해 주세요: 닭가슴살 츠쿠네 꼬치 대파깻잎 10팩</v>
-      </c>
-      <c r="B85" t="str">
-        <v>0%</v>
+    <row r="85" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
       </c>
       <c r="C85">
         <v>6</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 볼케이노 7팩</v>
-      </c>
-      <c r="B86" t="str">
-        <v>0%</v>
+    <row r="86" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
       </c>
       <c r="C86">
         <v>6</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>제품선택: 닭가슴살 스테이크 현미&amp;귀리 10팩</v>
-      </c>
-      <c r="B87" t="str">
-        <v>0%</v>
+    <row r="87" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
       </c>
       <c r="C87">
         <v>6</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>제품선택: 소스 닭가슴살 스테이크 해물짜장맛 7팩</v>
-      </c>
-      <c r="B88" t="str">
-        <v>0%</v>
+    <row r="88" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
       </c>
       <c r="C88">
         <v>6</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 매콤데리야끼맛 100g 7팩</v>
-      </c>
-      <c r="B89" t="str">
-        <v>0%</v>
+    <row r="89" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
       </c>
       <c r="C89">
         <v>7</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>제품선택: 소스 닭가슴살 스테이크 해물떡볶이맛 7팩</v>
-      </c>
-      <c r="B90" t="str">
-        <v>0%</v>
+    <row r="90" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
       </c>
       <c r="C90">
         <v>7</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>제품선택: The 그릴드 닭가슴살 스테이크 청양고추 7팩</v>
-      </c>
-      <c r="B91" t="str">
-        <v>0%</v>
+    <row r="91" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
       </c>
       <c r="C91">
         <v>7</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>제품선택: The 그릴드 닭가슴살 스테이크 옛날잡채 7팩</v>
-      </c>
-      <c r="B92" t="str">
-        <v>0%</v>
+    <row r="92" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
       </c>
       <c r="C92">
         <v>7</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>제품선택: 더촉촉한 닭가슴살 스파이시커리 7팩</v>
-      </c>
-      <c r="B93" t="str">
-        <v>0%</v>
+    <row r="93" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
       </c>
       <c r="C93">
         <v>8</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>제품선택: 더촉촉한 스테이크 레드크림커리 7팩</v>
-      </c>
-      <c r="B94" t="str">
-        <v>0%</v>
+    <row r="94" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
       </c>
       <c r="C94">
         <v>9</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>제품선택: The 그릴드 닭가슴살 스테이크 매콤치즈 7팩</v>
-      </c>
-      <c r="B95" t="str">
-        <v>0%</v>
+    <row r="95" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
       </c>
       <c r="C95">
         <v>9</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>옵션을 선택해 주세요: 오리지널 닭가슴살 슬라이스 7팩</v>
-      </c>
-      <c r="B96" t="str">
-        <v>0%</v>
+    <row r="96" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
       </c>
       <c r="C96">
         <v>10</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>옵션을 선택해 주세요: 더쫄깃한 닭다리살 숯불데리야끼 7팩</v>
-      </c>
-      <c r="B97" t="str">
-        <v>0%</v>
+    <row r="97" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
       </c>
       <c r="C97">
         <v>11</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>옵션을 선택해 주세요: 더쫄깃한 훈제 닭다리살 7팩</v>
-      </c>
-      <c r="B98" t="str">
-        <v>0%</v>
+    <row r="98" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
       </c>
       <c r="C98">
         <v>11</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>옵션을 선택해 주세요: 훈제 닭가슴살 슬라이스 7팩</v>
-      </c>
-      <c r="B99" t="str">
-        <v>0%</v>
+    <row r="99" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
       </c>
       <c r="C99">
         <v>11</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 숯불갈비맛 7팩</v>
-      </c>
-      <c r="B100" t="str">
-        <v>0%</v>
+    <row r="100" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
       </c>
       <c r="C100">
         <v>11</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>제품선택: 더촉촉한 닭가슴살 중화마라맛 7팩</v>
-      </c>
-      <c r="B101" t="str">
-        <v>0%</v>
+    <row r="101" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
       </c>
       <c r="C101">
         <v>12</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>제품선택: 소스 닭가슴살 토마토 7팩</v>
-      </c>
-      <c r="B102" t="str">
-        <v>1%</v>
+    <row r="102" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>44</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
       </c>
       <c r="C102">
         <v>14</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>제품선택: 더촉촉한 저염훈제 닭가슴살 HOT 7팩</v>
-      </c>
-      <c r="B103" t="str">
-        <v>1%</v>
+    <row r="103" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
       </c>
       <c r="C103">
         <v>14</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>제품선택: 소스 닭가슴살 스테이크 해물짬뽕맛 7팩</v>
-      </c>
-      <c r="B104" t="str">
-        <v>1%</v>
+    <row r="104" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>100</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
       </c>
       <c r="C104">
         <v>14</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>제품선택: 저염 슬라이스 닭가슴살 플러스 7팩</v>
-      </c>
-      <c r="B105" t="str">
-        <v>1%</v>
+    <row r="105" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>101</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
       </c>
       <c r="C105">
         <v>14</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>제품선택: 소스 닭가슴살 피클머스타드 7팩</v>
-      </c>
-      <c r="B106" t="str">
-        <v>1%</v>
+    <row r="106" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" t="s">
+        <v>4</v>
       </c>
       <c r="C106">
         <v>15</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>제품선택: 중화짜장 슬라이스 닭가슴살 7팩</v>
-      </c>
-      <c r="B107" t="str">
-        <v>1%</v>
+    <row r="107" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>102</v>
+      </c>
+      <c r="B107" t="s">
+        <v>4</v>
       </c>
       <c r="C107">
         <v>15</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>옵션을 선택해 주세요: 더촉촉한 닭가슴살 매콤데리야끼맛 7팩</v>
-      </c>
-      <c r="B108" t="str">
-        <v>1%</v>
+    <row r="108" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>4</v>
       </c>
       <c r="C108">
         <v>18</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>제품선택: 소스 닭가슴살 중화짬뽕맛 7팩</v>
-      </c>
-      <c r="B109" t="str">
-        <v>1%</v>
+    <row r="109" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>76</v>
+      </c>
+      <c r="B109" t="s">
+        <v>4</v>
       </c>
       <c r="C109">
         <v>22</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>제품선택: 더촉촉한 훈제 닭가슴살 7팩</v>
-      </c>
-      <c r="B110" t="str">
-        <v>1%</v>
+    <row r="110" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>4</v>
       </c>
       <c r="C110">
         <v>23</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>제품선택: 더촉촉한 닭가슴살 화이트머쉬룸 7팩</v>
-      </c>
-      <c r="B111" t="str">
-        <v>2%</v>
+    <row r="111" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>5</v>
       </c>
       <c r="C111">
         <v>30</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>제품선택: 훈제 닭가슴살 슬라이스 7팩</v>
-      </c>
-      <c r="B112" t="str">
-        <v>2%</v>
+    <row r="112" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>97</v>
+      </c>
+      <c r="B112" t="s">
+        <v>5</v>
       </c>
       <c r="C112">
         <v>31</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>제품선택: 오리지널 닭가슴살 슬라이스 7팩</v>
-      </c>
-      <c r="B113" t="str">
-        <v>2%</v>
+    <row r="113" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>94</v>
+      </c>
+      <c r="B113" t="s">
+        <v>5</v>
       </c>
       <c r="C113">
         <v>32</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>제품선택: 저염 훈제 닭가슴살 플러스 7팩</v>
-      </c>
-      <c r="B114" t="str">
-        <v>2%</v>
+    <row r="114" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>75</v>
+      </c>
+      <c r="B114" t="s">
+        <v>5</v>
       </c>
       <c r="C114">
         <v>33</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>제품선택: 소스 닭가슴살 청양마요 7팩</v>
-      </c>
-      <c r="B115" t="str">
-        <v>2%</v>
+    <row r="115" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>74</v>
+      </c>
+      <c r="B115" t="s">
+        <v>5</v>
       </c>
       <c r="C115">
         <v>35</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>제품선택: 더촉촉한 닭가슴살 스위트갈릭 7팩</v>
-      </c>
-      <c r="B116" t="str">
-        <v>2%</v>
+    <row r="116" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>28</v>
+      </c>
+      <c r="B116" t="s">
+        <v>5</v>
       </c>
       <c r="C116">
         <v>36</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>제품선택: 소스 닭가슴살 떡볶이맛 7팩</v>
-      </c>
-      <c r="B117" t="str">
-        <v>3%</v>
+    <row r="117" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>84</v>
+      </c>
+      <c r="B117" t="s">
+        <v>6</v>
       </c>
       <c r="C117">
         <v>45</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>제품선택: 페퍼콘 스팀 닭가슴살 플러스 7팩</v>
-      </c>
-      <c r="B118" t="str">
-        <v>3%</v>
+    <row r="118" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>81</v>
+      </c>
+      <c r="B118" t="s">
+        <v>6</v>
       </c>
       <c r="C118">
         <v>47</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>제품선택: 더쫄깃한 훈제 닭다리살 7팩</v>
-      </c>
-      <c r="B119" t="str">
-        <v>4%</v>
+    <row r="119" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
       </c>
       <c r="C119">
         <v>58</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>제품선택: 더쫄깃한 닭다리살 매콤바베큐 7팩</v>
-      </c>
-      <c r="B120" t="str">
-        <v>5%</v>
+    <row r="120" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
       </c>
       <c r="C120">
         <v>66</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>제품선택: 더쫄깃한 닭다리살 숯불데리야끼 7팩</v>
-      </c>
-      <c r="B121" t="str">
-        <v>6%</v>
+    <row r="121" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>112</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
       </c>
       <c r="C121">
         <v>80</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>제품선택: 더촉촉한 닭가슴살 핫양념치킨맛 7팩</v>
-      </c>
-      <c r="B122" t="str">
-        <v>6%</v>
+    <row r="122" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>113</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
       </c>
       <c r="C122">
         <v>85</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>제품선택: 더촉촉한 닭가슴살 숯불갈비맛 7팩</v>
-      </c>
-      <c r="B123" t="str">
-        <v>7%</v>
+    <row r="123" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>114</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
       </c>
       <c r="C123">
         <v>94</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>제품선택: 더촉촉한 닭가슴살 매콤데리야끼맛 7팩</v>
-      </c>
-      <c r="B124" t="str">
-        <v>8%</v>
+    <row r="124" spans="1:3" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>106</v>
+      </c>
+      <c r="B124" t="s">
+        <v>11</v>
       </c>
       <c r="C124">
         <v>113</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C124"/>
+    <ignoredError sqref="A1:C1 A29:C29 B2:C2 B3:C3 B4:C4 B5:C5 B6:C6 B7:C7 B8:C8 B9:C9 B10:C10 B11:C11 B12:C12 B13:C13 B14:C14 B15:C15 B16:C16 B17:C17 B18:C18 B19:C19 B20:C20 B21:C21 B22:C22 B23:C23 B24:C24 B25:C25 B26:C26 B27:C27 B28:C28 B124:C124 B30:C30 B31:C31 B32:C32 B33:C33 B34:C34 B35:C35 B36:C36 B37:C37 B38:C38 B39:C39 B40:C40 B41:C41 B42:C42 B43:C43 B44:C44 B45:C45 B46:C46 B47:C47 B48:C48 B49:C49 B50:C50 B51:C51 B52:C52 B53:C53 B54:C54 B55:C55 B56:C56 B57:C57 B58:C58 B59:C59 B60:C60 B61:C61 B62:C62 B63:C63 B64:C64 B65:C65 B66:C66 B67:C67 B68:C68 B69:C69 B70:C70 B71:C71 B72:C72 B73:C73 B74:C74 B75:C75 B76:C76 B77:C77 B78:C78 B79:C79 B80:C80 B81:C81 B82:C82 B83:C83 B84:C84 B85:C85 B86:C86 B87:C87 B88:C88 B89:C89 B90:C90 B91:C91 B92:C92 B93:C93 B94:C94 B95:C95 B96:C96 B97:C97 B98:C98 B99:C99 B100:C100 B101:C101 B102:C102 B103:C103 B104:C104 B105:C105 B106:C106 B107:C107 B108:C108 B109:C109 B110:C110 B111:C111 B112:C112 B113:C113 B114:C114 B115:C115 B116:C116 B117:C117 B118:C118 B119:C119 B120:C120 B121:C121 B122:C122 B123:C123" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>